--- a/sampleFile/LoanReconciliationSample.xlsx
+++ b/sampleFile/LoanReconciliationSample.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prabhakar\MCP\sampleFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D940978E-9F5C-4328-B67F-005858ACFE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4759722E-418A-4D53-BAB1-885F75E50ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$51</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -711,10 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -787,7 +791,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -807,7 +811,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -827,7 +831,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -887,7 +891,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -927,7 +931,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -967,7 +971,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1151,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1167,7 +1171,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1607,7 +1611,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1667,7 +1671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1687,7 +1691,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1707,7 +1711,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1748,6 +1752,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F51" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Unmatched"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>